--- a/Iteration 2 docs/UCID Table (updated).xlsx
+++ b/Iteration 2 docs/UCID Table (updated).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Downloads\CarRental\Iteration 2 docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7D8A70-ED2C-4D98-8509-737E10D3DFEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD045EE-7EEA-4941-A3DB-A305F0F45214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
 Club Membership (User only)</t>
   </si>
   <si>
-    <t>System user indicates that he wants to modify the System User profile while viewing it (Admin is not allowed to modify). This function is performed after View Profile function. Output is updated after a confirmation message.</t>
-  </si>
-  <si>
     <t>Search Vehicles</t>
   </si>
   <si>
@@ -560,6 +557,30 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> the selected user's profile. The output is updated after a confirmation message. Function is performed after View User function.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System user indicates that he wants to modify the System User profile while viewing it (Admin is not allowed to modify). This function is performed after View Profile function. Output is updated after a confirmation message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and the user is shown a successful toast message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -1628,9 +1649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="A1:H24"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,7 +1819,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1806,25 +1827,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1832,25 +1853,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1858,25 +1879,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1884,25 +1905,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -1910,25 +1931,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -1936,25 +1957,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -1962,25 +1983,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -1988,25 +2009,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
@@ -2014,25 +2035,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
@@ -2040,25 +2061,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="H16" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
@@ -2066,25 +2087,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="H17" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
@@ -2092,25 +2113,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>83</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -2118,25 +2139,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="F19" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
@@ -2144,25 +2165,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2170,25 +2191,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -2196,25 +2217,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -2222,25 +2243,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="24" t="s">
+      <c r="F23" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
@@ -2248,25 +2269,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2309,7 +2330,8 @@
     <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2353,57 +2375,57 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Iteration 2 docs/UCID Table (updated).xlsx
+++ b/Iteration 2 docs/UCID Table (updated).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Downloads\CarRental\Iteration 2 docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD045EE-7EEA-4941-A3DB-A305F0F45214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213EBC8-2EDB-4325-A5AC-5EEC34F2F2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,10 +195,6 @@
 (User may also navigate back to User homescreen)</t>
   </si>
   <si>
-    <t xml:space="preserve">Output produced is a selectable list of cars available to view which will be displayed as per requested occupant capacity. Output is sorted by cost (lowest to highest) then by date/time in chronological order. Total cost shown does not include options only basic car fees plus tax. This function shall not allow the User to request a vehicle if his rental status has been revoked.
-</t>
-  </si>
-  <si>
     <t>Select Vehicle</t>
   </si>
   <si>
@@ -581,6 +577,43 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Output produced is a selectable list of cars available to view which will be displayed as per requested occupant capacity. Output is sorted by cost (lowest to highest) </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>then by date/time in chronological orde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Total cost shown does not include options only basic car fees plus tax. This function shall not allow the User to request a vehicle if his rental status has been revoked.
+</t>
     </r>
   </si>
 </sst>
@@ -1650,8 +1683,8 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1819,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1845,7 +1878,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1853,25 +1886,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1879,25 +1912,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1905,25 +1938,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -1931,25 +1964,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -1957,25 +1990,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -1983,25 +2016,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -2009,25 +2042,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
@@ -2035,25 +2068,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
@@ -2061,25 +2094,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="H16" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
@@ -2087,25 +2120,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>75</v>
-      </c>
       <c r="H17" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
@@ -2113,25 +2146,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -2139,25 +2172,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="F19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
@@ -2165,25 +2198,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2191,25 +2224,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -2217,25 +2250,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -2243,25 +2276,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="24" t="s">
+      <c r="F23" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
@@ -2269,25 +2302,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2380,52 +2413,52 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Iteration 2 docs/UCID Table (updated).xlsx
+++ b/Iteration 2 docs/UCID Table (updated).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Downloads\CarRental\Iteration 2 docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213EBC8-2EDB-4325-A5AC-5EEC34F2F2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514D797-A408-4557-BE50-8F50438E323A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>Function Number</t>
   </si>
@@ -201,27 +201,10 @@
     <t>Search Vehicles Screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Car Number
-Car Name
-Car Occupant Capacity
-Start Date
-Start Time
-End Date
-End Time
-Total Cost
-GPS selected
-Sirius selected
-OnStar selected
-</t>
-  </si>
-  <si>
     <t>Selected Vehicle Screen
 (User may also navigate back to Search Vehicles Screen or User homescreen)</t>
   </si>
   <si>
-    <t>Output is the details of the selected car from the list. Function is performed after Search Vehicles function. The User can make a reservation from this output.</t>
-  </si>
-  <si>
     <t>Reserve Rental</t>
   </si>
   <si>
@@ -234,9 +217,6 @@
   <si>
     <t>Reserve Summary screen
 (User may also navigate back to User homescreen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System user can book the vehicle by selecting the "Reserve" option. The total cost shall be updated to reflect the selected options. This function allows the user to finalize the reservation after the Select Vehicle function. The reservation number is the success message indicating the reservation was successful.  </t>
   </si>
   <si>
     <t>View Rental History</t>
@@ -614,6 +594,106 @@
       </rPr>
       <t xml:space="preserve">. Total cost shown does not include options only basic car fees plus tax. This function shall not allow the User to request a vehicle if his rental status has been revoked.
 </t>
+    </r>
+  </si>
+  <si>
+    <t>View Selected Vehicle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Car Number
+Car Name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Selected Occupant Capacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Start Date
+Start Time
+End Date
+End Time
+Total Cost
+GPS selected
+Sirius selected
+OnStar selected
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System user can book the vehicle by selecting the "Reserve" option.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The total cost shall be updated to reflect the selected options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This function allows the user to finalize the reservation after the Select Vehicle function. The reservation number is the success message indicating the reservation was successful.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Output is the details of the selected car from the list. Function is performed after Search Vehicles function. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The total cost shall be updated to reflect the selected options. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The User can make a reservation from this output.</t>
     </r>
   </si>
 </sst>
@@ -1684,7 +1764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,7 +1932,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1878,15 +1958,15 @@
         <v>34</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>35</v>
+      <c r="B8" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>30</v>
@@ -1898,13 +1978,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1912,25 +1992,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1938,25 +2018,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -1964,25 +2044,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -1990,25 +2070,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -2016,25 +2096,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -2042,25 +2122,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
@@ -2068,25 +2148,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
@@ -2094,25 +2174,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
@@ -2120,25 +2200,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
@@ -2146,25 +2226,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -2172,25 +2252,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="H19" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
@@ -2198,25 +2278,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2224,25 +2304,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -2250,25 +2330,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -2276,25 +2356,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="24" t="s">
+      <c r="H23" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
@@ -2302,25 +2382,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2418,47 +2498,47 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Iteration 2 docs/UCID Table (updated).xlsx
+++ b/Iteration 2 docs/UCID Table (updated).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Downloads\CarRental\Iteration 2 docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeevesh Sehgal\Desktop\Latest Car\Iteration 2 docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514D797-A408-4557-BE50-8F50438E323A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6BBAB-E3F2-4858-8366-7B51A064A4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1763,8 +1763,8 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Iteration 2 docs/UCID Table (updated).xlsx
+++ b/Iteration 2 docs/UCID Table (updated).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeevesh Sehgal\Desktop\Latest Car\Iteration 2 docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6BBAB-E3F2-4858-8366-7B51A064A4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC06D90E-E461-4D6A-9481-3F25CAE4FDEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,14 +451,6 @@
 End Time (default=Now + 1 hour)</t>
   </si>
   <si>
-    <t xml:space="preserve">Car Name
-Car Number
-Car Occupant Capacity
-Cost Per Day
-Car Reservation status
-</t>
-  </si>
-  <si>
     <t>View Available Cars Screen (Rental Manager can navigate back to Rental Manager homescreen or his homescreen)</t>
   </si>
   <si>
@@ -489,17 +481,6 @@
   </si>
   <si>
     <t>View Available Cars Screen</t>
-  </si>
-  <si>
-    <t>Car Name
-Car Capacity
-Weekday Rate
-Weekend Rate
-Week Rate
-GPS rate
-OnStar rate
-SiriusXM rate
-Car status</t>
   </si>
   <si>
     <t>View Car Details Screen (Rental Manager can navigate back to View Available Car screen or rental homescreen)</t>
@@ -557,43 +538,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Output produced is a selectable list of cars available to view which will be displayed as per requested occupant capacity. Output is sorted by cost (lowest to highest) </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>then by date/time in chronological orde</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Total cost shown does not include options only basic car fees plus tax. This function shall not allow the User to request a vehicle if his rental status has been revoked.
-</t>
     </r>
   </si>
   <si>
@@ -694,6 +638,86 @@
         <scheme val="minor"/>
       </rPr>
       <t>The User can make a reservation from this output.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Car Name
+Car Capacity
+Weekday Rate
+Weekend Rate
+Week Rate
+GPS rate
+OnStar rate
+SiriusXM rate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Car status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Output produced is a selectable list of cars available to view which will be displayed as per requested occupant capacity. Output is sorted by cost (lowest to highest) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>then by date/time in chronological order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Total cost shown does not include options only basic car fees plus tax. This function shall not allow the User to request a vehicle if his rental status has been revoked.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Car Name
+Car Number
+Car Occupant Capacity
+Cost Per Day
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Car Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -1763,8 +1787,8 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1932,7 +1956,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1958,7 +1982,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1966,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>30</v>
@@ -1978,13 +2002,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2010,7 +2034,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2174,7 +2198,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>62</v>
@@ -2192,7 +2216,7 @@
         <v>71</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
@@ -2342,13 +2366,13 @@
         <v>97</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -2356,7 +2380,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>81</v>
@@ -2365,16 +2389,16 @@
         <v>82</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
@@ -2382,25 +2406,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2498,7 +2522,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -2538,7 +2562,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Iteration 2 docs/UCID Table (updated).xlsx
+++ b/Iteration 2 docs/UCID Table (updated).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeevesh Sehgal\Desktop\Latest Car\Iteration 2 docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem3\SE\ArlingtonAuto\Iteration 2 docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC06D90E-E461-4D6A-9481-3F25CAE4FDEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5987D208-A265-48A1-9D02-C9080C5BF5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1020" windowWidth="14160" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,13 +310,6 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>Username
-Lastname
-Firstname
-Phone
-Email</t>
-  </si>
-  <si>
     <t>Search All Users Screen  (Admin may navigate back to Admin homescreen)</t>
   </si>
   <si>
@@ -719,6 +712,13 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Username
+Lastname
+Firstname
+UTA ID
+Email</t>
   </si>
 </sst>
 </file>
@@ -1786,9 +1786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="84" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1956,7 +1956,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1982,7 +1982,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1990,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>30</v>
@@ -2002,13 +2002,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2034,7 +2034,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2158,13 +2158,13 @@
         <v>64</v>
       </c>
       <c r="F14" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
@@ -2172,25 +2172,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
@@ -2198,25 +2198,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="H16" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
@@ -2224,25 +2224,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="H17" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
@@ -2250,25 +2250,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -2276,25 +2276,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="F19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
@@ -2302,25 +2302,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2328,25 +2328,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -2354,25 +2354,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -2380,25 +2380,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>101</v>
-      </c>
       <c r="F23" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
@@ -2406,25 +2406,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2522,7 +2522,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -2537,17 +2537,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
@@ -2557,12 +2557,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
